--- a/2019/30134.xlsx
+++ b/2019/30134.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dt\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AA2EA4-F376-4020-A95C-D52F75119271}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68466007-E258-4AF4-8FF2-79E0AB026FF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D8816DA-82BD-435A-B96D-1E869846659E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>L1</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Vilcica Maria Adela</t>
+  </si>
+  <si>
+    <t>4,5</t>
   </si>
 </sst>
 </file>
@@ -635,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FC518A-FA3D-453E-BD9E-77B969FB8DBB}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -695,7 +698,9 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9">
+        <v>6</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -795,7 +800,9 @@
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -845,7 +852,9 @@
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9">
+        <v>8</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -861,7 +870,9 @@
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9">
+        <v>6</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -877,7 +888,9 @@
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9">
+        <v>6</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -893,7 +906,9 @@
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>

--- a/2019/30134.xlsx
+++ b/2019/30134.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dt\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68466007-E258-4AF4-8FF2-79E0AB026FF3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23753F42-1750-4C9B-8EB2-1588A7FF01DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D8816DA-82BD-435A-B96D-1E869846659E}"/>
   </bookViews>
@@ -286,9 +286,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -638,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FC518A-FA3D-453E-BD9E-77B969FB8DBB}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -648,497 +647,497 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>8</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="C10" s="8">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>8</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>6</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>6</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>8</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="2"/>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019/30134.xlsx
+++ b/2019/30134.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\dt\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23753F42-1750-4C9B-8EB2-1588A7FF01DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B157E8B2-D8BA-455A-9D10-07A95CBC9198}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D8816DA-82BD-435A-B96D-1E869846659E}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -698,7 +698,9 @@
       <c r="C3" s="8">
         <v>6</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -716,7 +718,9 @@
       <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -782,7 +786,9 @@
       <c r="C8" s="8">
         <v>8</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -836,7 +842,9 @@
       <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -854,7 +862,9 @@
       <c r="C12" s="8">
         <v>8</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -872,7 +882,9 @@
       <c r="C13" s="8">
         <v>6</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -890,7 +902,9 @@
       <c r="C14" s="8">
         <v>6</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9">
+        <v>4</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -908,7 +922,9 @@
       <c r="C15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="10"/>
@@ -926,7 +942,9 @@
       <c r="C16" s="8">
         <v>8</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
